--- a/algoritmos/GA/pol4.xlsx
+++ b/algoritmos/GA/pol4.xlsx
@@ -1,45 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ho\Desktop\TCC\TCC2\algoritmos\GA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,22 +54,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -373,21 +428,1667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="BB7" sqref="BB7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col width="9.5703125" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>57.875</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57.875</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>57.875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>57.875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>57.375</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>58</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>58</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>58</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>58</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>57.875</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>58</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>58</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>58</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>57.875</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>57.625</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>